--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T23:45:39-03:00</t>
+    <t>2023-01-18T13:51:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T13:51:24-03:00</t>
+    <t>2023-01-18T14:20:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:20:48-03:00</t>
+    <t>2023-01-19T11:18:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T14:40:00-03:00</t>
+    <t>2023-01-25T12:03:32-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T12:03:32-03:00</t>
+    <t>2023-01-25T13:45:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:45:37-03:00</t>
+    <t>2023-01-30T23:51:40-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T23:51:40-03:00</t>
+    <t>2023-01-31T15:14:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T15:14:06-03:00</t>
+    <t>2023-02-10T14:01:31-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T14:01:31-03:00</t>
+    <t>2023-02-13T10:57:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T10:57:49-03:00</t>
+    <t>2023-02-14T08:51:49-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T08:51:49-03:00</t>
+    <t>2023-02-14T11:46:47-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T11:46:47-03:00</t>
+    <t>2023-02-14T13:39:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T13:39:18-03:00</t>
+    <t>2023-02-15T12:48:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -953,42 +953,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="87.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.21875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="89.890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.94140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.11328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.59375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.25390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.4765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.8671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T12:48:14-03:00</t>
+    <t>2023-02-17T16:26:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -953,42 +953,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="89.890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.94140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.11328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="87.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.21875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="221.59375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.4765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.25390625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.8671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T16:26:02-03:00</t>
+    <t>2023-02-22T17:19:22-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T17:19:22-03:00</t>
+    <t>2023-03-02T16:47:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:47:17-03:00</t>
+    <t>2023-03-10T16:52:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -391,6 +391,12 @@
     <t>Value of extension</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://minsal.cl/listaespera/ValueSet/VSPuebloIndigena</t>
+  </si>
+  <si>
     <t>Extension.extension:PuebloIndigenaCodigo.value[x]:valueCodeableConcept.id</t>
   </si>
   <si>
@@ -518,12 +524,6 @@
   </si>
   <si>
     <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://minsal.cl/listaespera/ValueSet/VSPuebloIndigena</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1993,13 +1993,11 @@
         <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>73</v>
@@ -2037,10 +2035,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2140,14 +2138,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2169,13 +2167,13 @@
         <v>87</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2245,10 +2243,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2271,19 +2269,19 @@
         <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>73</v>
@@ -2332,7 +2330,7 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -2347,15 +2345,15 @@
         <v>117</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2455,14 +2453,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2484,13 +2482,13 @@
         <v>87</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2560,10 +2558,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2589,16 +2587,16 @@
         <v>103</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -2647,7 +2645,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -2662,15 +2660,15 @@
         <v>117</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2696,13 +2694,13 @@
         <v>80</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2752,7 +2750,7 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>74</v>
@@ -2767,15 +2765,15 @@
         <v>117</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2798,17 +2796,17 @@
         <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>73</v>
@@ -2833,11 +2831,13 @@
         <v>73</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>73</v>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T16:52:05-03:00</t>
+    <t>2023-03-11T07:17:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-11T07:17:50-03:00</t>
+    <t>2023-04-21T12:02:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -953,42 +953,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="87.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.21875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="89.890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.94140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.11328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="221.59375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="229.41796875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.25390625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="23.3359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.4765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="23.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="45.8671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="46.53125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PuebloIndigena.xlsx
+++ b/docs/StructureDefinition-PuebloIndigena.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T12:02:08-04:00</t>
+    <t>2023-05-08T17:35:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -1323,7 +1320,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>75</v>
@@ -1338,13 +1335,13 @@
         <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1383,19 +1380,19 @@
         <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>74</v>
@@ -1407,7 +1404,7 @@
         <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>73</v>
@@ -1415,26 +1412,26 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>73</v>
@@ -1443,13 +1440,13 @@
         <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1500,7 +1497,7 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>74</v>
@@ -1512,7 +1509,7 @@
         <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>73</v>
@@ -1520,10 +1517,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1623,10 +1620,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1649,13 +1646,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1694,19 +1691,19 @@
         <v>73</v>
       </c>
       <c r="AB7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AC7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AC7" t="s" s="2">
+      <c r="AD7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AD7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE7" t="s" s="2">
+      <c r="AF7" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>
@@ -1718,7 +1715,7 @@
         <v>73</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>73</v>
@@ -1726,10 +1723,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1743,7 +1740,7 @@
         <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>73</v>
@@ -1752,16 +1749,16 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1769,7 +1766,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>73</v>
@@ -1811,30 +1808,30 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1857,13 +1854,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1902,43 +1899,43 @@
         <v>73</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AF9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>73</v>
@@ -1960,13 +1957,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1993,11 +1990,11 @@
         <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>73</v>
@@ -2015,7 +2012,7 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
@@ -2030,15 +2027,15 @@
         <v>73</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2138,14 +2135,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2164,16 +2161,16 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2211,19 +2208,19 @@
         <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AC12" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AC12" t="s" s="2">
+      <c r="AD12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AD12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE12" t="s" s="2">
+      <c r="AF12" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
@@ -2235,7 +2232,7 @@
         <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>84</v>
@@ -2243,10 +2240,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2260,28 +2257,28 @@
         <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>73</v>
@@ -2330,7 +2327,7 @@
         <v>73</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>74</v>
@@ -2342,18 +2339,18 @@
         <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2453,14 +2450,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2479,16 +2476,16 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2526,19 +2523,19 @@
         <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AC15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AD15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
@@ -2550,7 +2547,7 @@
         <v>73</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>84</v>
@@ -2558,10 +2555,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2575,28 +2572,28 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>73</v>
@@ -2645,30 +2642,30 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2688,19 +2685,19 @@
         <v>73</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2750,30 +2747,30 @@
         <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>158</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2787,26 +2784,26 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>73</v>
@@ -2855,30 +2852,30 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2892,26 +2889,26 @@
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>73</v>
@@ -2960,30 +2957,30 @@
         <v>73</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3003,22 +3000,22 @@
         <v>73</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>73</v>
@@ -3067,30 +3064,30 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>182</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3104,28 +3101,28 @@
         <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>73</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>73</v>
@@ -3174,33 +3171,33 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>73</v>
@@ -3213,7 +3210,7 @@
         <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>73</v>
@@ -3222,13 +3219,13 @@
         <v>73</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3279,7 +3276,7 @@
         <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>74</v>
@@ -3291,7 +3288,7 @@
         <v>73</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>73</v>
@@ -3299,10 +3296,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3402,10 +3399,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3428,13 +3425,13 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>27</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3473,19 +3470,19 @@
         <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AC24" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AC24" t="s" s="2">
+      <c r="AD24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AD24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
@@ -3497,7 +3494,7 @@
         <v>73</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>73</v>
@@ -3505,10 +3502,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3531,16 +3528,16 @@
         <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3548,7 +3545,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>73</v>
@@ -3590,30 +3587,30 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3636,13 +3633,13 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3693,30 +3690,30 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3730,7 +3727,7 @@
         <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>73</v>
@@ -3739,16 +3736,16 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -3798,30 +3795,30 @@
         <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3844,13 +3841,13 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3901,22 +3898,22 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AK28" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
